--- a/xyz.meedu.admin/public/template/学员批量导入模板.xlsx
+++ b/xyz.meedu.admin/public/template/学员批量导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markjune/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tengyongzhi/work/meedu/meedu-open/xyz.meedu.admin/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6753381B-7313-C141-A8FD-F5FA539F7816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB5E0E-B9DD-7642-B5E7-CEFFF6DD2327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="7020" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
+    <workbookView xWindow="8080" yWindow="6500" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>登录密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>手机号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会员到期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-12-30 18:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,11 +56,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.「手机号码」填写学员手机号码作为账号登录
-2.「登录密码」支持字母/数字
-3.「VIP会员」选填，填写（后台-运营-VIP会员的会员对应ID号）。
-4.「会员过期时间」默认无需填写，如果填写了「会员等级」，此项为必填，格式：2022-12-30 18:00:00
-5.「学员标签」选填，填写任意标签名称，多个标签用英文逗号分割，格式：忠实用户,线下学员</t>
+    <t>会员到期时间（选填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码（选填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称（选填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.「昵称」选填，如果留空的话则系统自动生成一个随机的昵称，请注意昵称不要重复
+2.「手机号码」填写学员手机号码作为账号登录，请注意手机号不要重复
+3.「登录密码」选填，如果留空的话则默认密码为手机号，内容支持字母/数字
+4.「VIP会员」选填，填写（后台-运营-VIP会员的会员对应ID号）。
+5.「会员过期时间」默认无需填写，如果填写了「VIP会员」，此项为必填，格式：2022-12-30 18:00:00
+6.「学员标签」选填，填写任意标签名称，多个标签用英文逗号分割，格式：忠实用户,线下学员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7CF1DF-E8C8-A642-A3A6-9E8430F6FA50}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -508,50 +517,77 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="30.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="60.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="130" customHeight="1">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="159" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="50" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1380001234</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123123</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="1">
-        <v>1380001234</v>
-      </c>
-      <c r="B3" s="1">
-        <v>123123</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1">
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
